--- a/Registros_sin_IdLocalizacion_SQL.xlsx
+++ b/Registros_sin_IdLocalizacion_SQL.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -796,7 +796,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -827,7 +827,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARÁ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SOTARA PAISPAMBA</t>
+          <t>SOTARA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>SAN ANTERO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>SAN ANTERO</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3176,10 +3176,26 @@
           <t>140-99486</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3193,7 +3209,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ANTIOQUIA</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3203,7 +3219,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ANTIOQUIA</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3229,7 +3245,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>SAN JUAN DEL CESAR</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3239,7 +3255,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>SAN JUAN DEL CESAR</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3253,10 +3269,26 @@
           <t>180-11063</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3268,10 +3300,26 @@
           <t>346-1203</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3283,10 +3331,26 @@
           <t>346-5732</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3298,10 +3362,26 @@
           <t>346-3369</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3313,10 +3393,26 @@
           <t>015-45924</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3328,10 +3424,26 @@
           <t>346-6168</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3343,10 +3455,26 @@
           <t>346-739</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3358,10 +3486,26 @@
           <t>346-9740</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3373,10 +3517,26 @@
           <t>346-7895</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3388,10 +3548,26 @@
           <t>346-7463</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -3403,10 +3579,26 @@
           <t>346-409</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3418,10 +3610,26 @@
           <t>346-3124</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MEDELLÍN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ANTIOQUIA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
     </row>
   </sheetData>
